--- a/motif_fold/sample_data/prediction_statistics.xlsx
+++ b/motif_fold/sample_data/prediction_statistics.xlsx
@@ -444,7 +444,7 @@
         <v>3.969525955078764</v>
       </c>
       <c r="D2">
-        <v>4.267649231609201</v>
+        <v>3.9540365629304</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -461,7 +461,7 @@
         <v>3.969525955078764</v>
       </c>
       <c r="D3">
-        <v>3.785486180388643</v>
+        <v>4.181632514029767</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>3.969525955078764</v>
       </c>
       <c r="D4">
-        <v>3.923718556650635</v>
+        <v>3.905624413020472</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>3.969525955078764</v>
       </c>
       <c r="D5">
-        <v>3.747128042264856</v>
+        <v>3.376279835916021</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>3.969525955078764</v>
       </c>
       <c r="D6">
-        <v>3.847587881185593</v>
+        <v>4.022549032247373</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>3.969525955078764</v>
       </c>
       <c r="D7">
-        <v>3.095599448859587</v>
+        <v>2.811504924419107</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D8">
-        <v>0.1968455182887553</v>
+        <v>0.2183889270350595</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D9">
-        <v>3.738098448366311</v>
+        <v>3.496495622597453</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D10">
-        <v>2.750842441444678</v>
+        <v>2.74078135301833</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D11">
-        <v>2.295115469728105</v>
+        <v>2.194260955038563</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D12">
-        <v>2.400739268308613</v>
+        <v>2.597455637268491</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D13">
-        <v>2.630188782572099</v>
+        <v>2.513056342518114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D14">
-        <v>2.372257481441067</v>
+        <v>2.598655262551237</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D15">
-        <v>2.814502275205125</v>
+        <v>3.601233237869741</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D16">
-        <v>1.187361307443148</v>
+        <v>0.9590897018170065</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>2.708403355849099</v>
       </c>
       <c r="D17">
-        <v>1.237855923933932</v>
+        <v>1.160374705064742</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D18">
-        <v>2.170418300609594</v>
+        <v>1.866379563505105</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D19">
-        <v>1.430615324131823</v>
+        <v>1.492782896053167</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D20">
-        <v>2.364957126069461</v>
+        <v>2.102915747072868</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D21">
-        <v>1.910462025162917</v>
+        <v>1.659207448773657</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D22">
-        <v>2.185393001754776</v>
+        <v>2.02466419910577</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D23">
-        <v>2.257597767219018</v>
+        <v>2.624625613993381</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D24">
-        <v>2.246244335288237</v>
+        <v>1.916969073997867</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D25">
-        <v>0.9995393242147196</v>
+        <v>0.2881019863301787</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D26">
-        <v>1.587625426870536</v>
+        <v>1.607937456459091</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D27">
-        <v>1.124791803990417</v>
+        <v>1.327689617422779</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>1.767052158925045</v>
       </c>
       <c r="D28">
-        <v>1.446849478767335</v>
+        <v>1.534932521169139</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D29">
-        <v>1.71021148296581</v>
+        <v>1.118637698149256</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D30">
-        <v>1.501426318108058</v>
+        <v>1.044205318101666</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D31">
-        <v>0.6824118704825699</v>
+        <v>0.8429248892980106</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D32">
-        <v>1.145219067897368</v>
+        <v>0.90419186310444</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D33">
-        <v>0.7403483281382239</v>
+        <v>0.465936949281761</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D34">
-        <v>1.134644862504494</v>
+        <v>1.36046761258135</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D35">
-        <v>1.847502729166786</v>
+        <v>1.450943707580096</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D36">
-        <v>0.8336859074631813</v>
+        <v>0.5395928297749795</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D37">
-        <v>0.9670027977212585</v>
+        <v>0.9405416979110022</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0.7960401444719472</v>
       </c>
       <c r="D38">
-        <v>-0.4377943015203111</v>
+        <v>-0.2500195829584081</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D39">
-        <v>0.7592174982287587</v>
+        <v>0.9365411173793478</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D40">
-        <v>-0.2082856366855694</v>
+        <v>0.1172886001478751</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D41">
-        <v>0.7046703047467301</v>
+        <v>0.1804435855325642</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D42">
-        <v>0.5710423238747262</v>
+        <v>0.1562589673939698</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D43">
-        <v>-0.6551876675553888</v>
+        <v>-0.2065254400041931</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D44">
-        <v>0.8834792960362106</v>
+        <v>0.7858154831078781</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0.7960401444719484</v>
       </c>
       <c r="D45">
-        <v>-1.140382172389023</v>
+        <v>-0.6157825283793735</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D46">
-        <v>0.8339152536526743</v>
+        <v>0.8288959219631494</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D47">
-        <v>0.3094154632905656</v>
+        <v>0.2273190558679077</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D48">
-        <v>0.1277429053364441</v>
+        <v>0.1039654127830249</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D49">
-        <v>0.07994965289414498</v>
+        <v>0.1981719544670023</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D50">
-        <v>0.3383569621230776</v>
+        <v>0.2378436701205127</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D51">
-        <v>-0.1128520498490143</v>
+        <v>0.6143768399407749</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D52">
-        <v>0.2018022965867391</v>
+        <v>-0.26607652899743</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D53">
-        <v>0.7269635103143564</v>
+        <v>0.5986693471037621</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D54">
-        <v>-0.7267242683585439</v>
+        <v>-0.2450709318655792</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D55">
-        <v>-1.080223987741706</v>
+        <v>-0.995642340242903</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D56">
-        <v>-0.3854489397305735</v>
+        <v>-0.740473122665395</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D57">
-        <v>-1.055124259207533</v>
+        <v>-0.4443106075660838</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D58">
-        <v>-0.9535840656215029</v>
+        <v>-0.9387233932288133</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D59">
-        <v>-0.8518435759660565</v>
+        <v>-0.7180643956082933</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D60">
-        <v>-0.4202758558641418</v>
+        <v>-0.2446733210312542</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0.144291545861585</v>
       </c>
       <c r="D61">
-        <v>-0.6820179641339351</v>
+        <v>-0.350879846098468</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D62">
-        <v>-0.1490289680343041</v>
+        <v>0.2218331482618365</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D63">
-        <v>0.1611073605651075</v>
+        <v>-0.02438960929799799</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D64">
-        <v>-1.266330399977896</v>
+        <v>-0.8645031978531559</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D65">
-        <v>-1.142435812055646</v>
+        <v>-0.7909710912351486</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D66">
-        <v>-0.9193415892943236</v>
+        <v>-1.080966056887943</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D67">
-        <v>-0.1895785408148638</v>
+        <v>-0.1134557069736219</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D68">
-        <v>-0.8047325986345807</v>
+        <v>-1.166525975436375</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D69">
-        <v>0.3740103536258326</v>
+        <v>0.0905292733974865</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D70">
-        <v>-0.3029108982268168</v>
+        <v>-0.6422980639314185</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D71">
-        <v>-0.3653594586177206</v>
+        <v>-0.5385594020562177</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D72">
-        <v>-0.906030808011707</v>
+        <v>-0.6361897493137368</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D73">
-        <v>-0.3486604764202773</v>
+        <v>-0.4338141550211537</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D74">
-        <v>-0.2625928247988942</v>
+        <v>-0.3423620549480926</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D75">
-        <v>-0.3077540466737235</v>
+        <v>-0.1076876650979063</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D76">
-        <v>-0.7993544476450032</v>
+        <v>-0.7698107787352</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D77">
-        <v>-0.2221721387835168</v>
+        <v>0.1711869646088364</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D78">
-        <v>0.9803796221003165</v>
+        <v>0.7705567053283212</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D79">
-        <v>-0.5368984742093353</v>
+        <v>0.05536372046575223</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D80">
-        <v>-0.6240473093297324</v>
+        <v>-0.4933384269309783</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D81">
-        <v>-1.061447219749042</v>
+        <v>-0.7750488591685747</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D82">
-        <v>-0.3748569380325805</v>
+        <v>-0.8572735464735528</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D83">
-        <v>-1.060924872188268</v>
+        <v>-0.951517291837351</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D84">
-        <v>-0.8742871022594181</v>
+        <v>-0.5502533937233227</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D85">
-        <v>0.24727246220581</v>
+        <v>0.1678027073258625</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D86">
-        <v>-1.111531399829963</v>
+        <v>-0.5694253471780268</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>-0.8486462723367267</v>
       </c>
       <c r="D87">
-        <v>-0.3225392480482991</v>
+        <v>-0.44573591471784</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>-0.8486462723367216</v>
       </c>
       <c r="D88">
-        <v>-0.9016021316036155</v>
+        <v>-0.8517098505376439</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>-0.8486462723367216</v>
       </c>
       <c r="D89">
-        <v>-1.000265743517315</v>
+        <v>-1.386421546390085</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>-0.8486462723367216</v>
       </c>
       <c r="D90">
-        <v>-0.5874432682949597</v>
+        <v>-0.3783022593908467</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>-0.8486462723367216</v>
       </c>
       <c r="D91">
-        <v>-1.507082795242693</v>
+        <v>-1.189007823276715</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>-0.8486462723367216</v>
       </c>
       <c r="D92">
-        <v>-0.6796372580955713</v>
+        <v>-0.9413812065097993</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D93">
-        <v>-0.7690379694727306</v>
+        <v>-0.6587041349089443</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D94">
-        <v>-0.7178155083195292</v>
+        <v>-0.7189568273115227</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D95">
-        <v>-1.620400840521093</v>
+        <v>-2.063013837381933</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D96">
-        <v>-1.01572856398198</v>
+        <v>-0.6979670640336406</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D97">
-        <v>-0.7379457376105983</v>
+        <v>0.3957772623325738</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D98">
-        <v>-0.7653193183962554</v>
+        <v>-1.127988750720483</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D99">
-        <v>-0.9482556174489685</v>
+        <v>-1.03789101685787</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D100">
-        <v>-0.8929844873913401</v>
+        <v>-0.9608181624700413</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D101">
-        <v>-1.530815249571233</v>
+        <v>-1.33068340035003</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D102">
-        <v>-1.454233340615756</v>
+        <v>-1.806575921391434</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D103">
-        <v>-1.618484067922055</v>
+        <v>-1.489558295810081</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D104">
-        <v>-2.031889028612503</v>
+        <v>-1.580084058174024</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D105">
-        <v>-2.049285752257751</v>
+        <v>-1.779223524815218</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D106">
-        <v>-1.493749265143344</v>
+        <v>-1.614134484279705</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D107">
-        <v>-1.559860492074416</v>
+        <v>-1.693677785339127</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D108">
-        <v>-1.634918829591981</v>
+        <v>-2.155148848059827</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>-1.479779681900296</v>
       </c>
       <c r="D109">
-        <v>-1.887510279347059</v>
+        <v>-1.910531717395385</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D110">
-        <v>-1.592749057787019</v>
+        <v>-1.367531354624814</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D111">
-        <v>-2.366996091677264</v>
+        <v>-2.583517331066592</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D112">
-        <v>-2.406050816883647</v>
+        <v>-2.365880589858823</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D113">
-        <v>-2.453240332360663</v>
+        <v>-2.33367825860497</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D114">
-        <v>-2.41867939784226</v>
+        <v>-2.505971344691281</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D115">
-        <v>-2.093261815232711</v>
+        <v>-2.46002113833214</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D116">
-        <v>-2.39463619668946</v>
+        <v>-2.334504089151163</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D117">
-        <v>-2.497317466063331</v>
+        <v>-2.473560886737723</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D118">
-        <v>-2.512867618384838</v>
+        <v>-2.233625352821572</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D119">
-        <v>-2.557343130334039</v>
+        <v>-2.494428529840505</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D120">
-        <v>-2.012273592237018</v>
+        <v>-2.012149179566389</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D121">
-        <v>-2.464759098243154</v>
+        <v>-2.448386185367592</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D122">
-        <v>-1.634254640625328</v>
+        <v>-1.264217614027386</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>-2.479701513728857</v>
       </c>
       <c r="D123">
-        <v>-2.495981723990808</v>
+        <v>-2.46097007216158</v>
       </c>
       <c r="E123">
         <v>0</v>
